--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo Agas\Documents\GitHub\Pantasa\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29ECA54C-F876-43B8-90FF-9D3F5DA39443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{46C8CAEE-46D0-4C7E-A5D6-D827957AC9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{9161E7F5-FD1E-46A9-B396-23F516CEFEEC}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{9161E7F5-FD1E-46A9-B396-23F516CEFEEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="preprocessed" sheetId="2" r:id="rId2"/>
-    <sheet name="N-Grams" sheetId="3" r:id="rId3"/>
-    <sheet name="2-gram" sheetId="4" r:id="rId4"/>
-    <sheet name="3-gram" sheetId="5" r:id="rId5"/>
-    <sheet name="4-gram" sheetId="6" r:id="rId6"/>
-    <sheet name="5-gram" sheetId="7" r:id="rId7"/>
-    <sheet name="6-gram" sheetId="8" r:id="rId8"/>
-    <sheet name="7-gram" sheetId="9" r:id="rId9"/>
+    <sheet name="preprocessed" sheetId="2" r:id="rId1"/>
+    <sheet name="N-Grams" sheetId="3" r:id="rId2"/>
+    <sheet name="2gram" sheetId="4" r:id="rId3"/>
+    <sheet name="3gram" sheetId="5" r:id="rId4"/>
+    <sheet name="4gram" sheetId="6" r:id="rId5"/>
+    <sheet name="5gram" sheetId="7" r:id="rId6"/>
+    <sheet name="6grams" sheetId="8" r:id="rId7"/>
+    <sheet name="7grams" sheetId="9" r:id="rId8"/>
+    <sheet name="hngrams" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,54 +44,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>Tokenized</t>
-  </si>
-  <si>
-    <t>RoughPOST</t>
-  </si>
-  <si>
-    <t>DetailedPOST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Token ID</t>
   </si>
   <si>
-    <t>TokenID</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>NG ID</t>
   </si>
   <si>
     <t>N-Gram Size</t>
   </si>
   <si>
-    <t>Lemmatization</t>
-  </si>
-  <si>
     <t>N-Gram</t>
   </si>
   <si>
-    <t>POS N-Gram</t>
-  </si>
-  <si>
-    <t>Lemma N-Gram</t>
-  </si>
-  <si>
-    <t>4-</t>
-  </si>
-  <si>
     <t>N-gram</t>
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Lemma</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>freqeuncy</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>detailed_pos_tags</t>
+  </si>
+  <si>
+    <t>rough_pos_tags</t>
+  </si>
+  <si>
+    <t>lemmatized_sentence</t>
   </si>
 </sst>
 </file>
@@ -462,21 +456,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C90089-F4F7-4E4E-8C70-77E68E91B202}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05A66AA-3EC0-4290-A05B-D02B9A577E53}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -485,51 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05A66AA-3EC0-4290-A05B-D02B9A577E53}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D4CCE7-6580-4D23-B096-04AB7965F79A}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,22 +506,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -564,28 +529,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A07430-4596-4BD0-8528-784F3594D275}">
   <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0202048A-65C5-442D-BDAA-9A0DBDC3BC85}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4C37C-9537-4AC1-85DA-EC8A42D8113B}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45964FD2-F0C0-4642-909E-D4B347DBDA31}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5160F0CC-33C9-4A07-8065-42A2392C5DFD}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1BF5BE-0297-4AA9-A211-3B6F72A32B23}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A6D9E-E8B4-46D1-9098-77605E96B6FD}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -593,73 +712,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0202048A-65C5-442D-BDAA-9A0DBDC3BC85}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4C37C-9537-4AC1-85DA-EC8A42D8113B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45964FD2-F0C0-4642-909E-D4B347DBDA31}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5160F0CC-33C9-4A07-8065-42A2392C5DFD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1BF5BE-0297-4AA9-A211-3B6F72A32B23}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9E7631CF54D7546A789C65341749317" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28b4667c3261740b907606f4a543f1e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b8c571a2-8c08-439e-b61d-30bfd45cbe9a" xmlns:ns4="71a8e0a4-9d5f-4291-aa00-53564986a943" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345e5b7808cc89ee411b53c795dbf06d" ns3:_="" ns4:_="">
     <xsd:import namespace="b8c571a2-8c08-439e-b61d-30bfd45cbe9a"/>
@@ -866,15 +928,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -884,6 +937,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7208B19-0D2B-49B7-8A87-F2AF93FCAC22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FC03E79-6193-4DEF-BE15-7B70163033CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -902,14 +963,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7208B19-0D2B-49B7-8A87-F2AF93FCAC22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104F14B8-0A8E-4A75-8A9F-7D7E930B1BD8}">
   <ds:schemaRefs>
